--- a/アルバム登録_単体テスト.xlsx
+++ b/アルバム登録_単体テスト.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9051D9-C816-4C9E-9721-B031280A7ED7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE5AEC64-F420-492C-B514-60237C7B08B0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アルバム登録" sheetId="1" r:id="rId1"/>
-    <sheet name="ブログ登録確認" sheetId="3" r:id="rId2"/>
-    <sheet name="アルバム登録完了" sheetId="4" r:id="rId3"/>
+    <sheet name="アルバム登録完了" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -136,16 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「登録する」ボタンの表示の確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とエラーメッセージを赤字で表示の確認</t>
     <rPh sb="16" eb="18">
       <t>カクニン</t>
@@ -176,13 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「登録する」</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施日</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -287,13 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログ登録</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルがテキストボックスで初期値は空欄か確認</t>
     <rPh sb="14" eb="17">
       <t>ショキチ</t>
@@ -357,167 +332,6 @@
     <t>全角スペース、空白の入力する</t>
   </si>
   <si>
-    <t>「30文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「500文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ登録確認画面</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ブログ新規登録確認」の表示</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルの入力値を表示の確認</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容の入力値がグリッド内に表示されているか確認</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「戻る」ボタンの表示の確認</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ登録確認画面のURL/blog-regist-confirm.phpの確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ登録画面の「確認する」を押す。</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ブログ登録確認画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blog-regist-confirm.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ブログ新規登録確認」</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ登録画面で入力された値の表示</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ登録画面で入力された値がグリッド内に表示</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -621,25 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.「写真」に画像系ファイル以上を選択する</t>
-    <rPh sb="3" eb="5">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.JPEG、PNG、GIFのみ選択</t>
     <rPh sb="16" eb="18">
       <t>センタク</t>
@@ -1012,6 +807,55 @@
   </si>
   <si>
     <t>「○○枚選択されています」</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30文字に制御される</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」に画像系ファイル10枚以上を選択する</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10枚まで選択可能</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1141,90 +985,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1600,55 +1361,38 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A43:I46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A43:I46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E5A1AC5-72BD-4A39-A5BA-F2012FA95897}" name="テーブル35" displayName="テーブル35" ref="A23:I27" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B4073CD8-5F0E-40D9-8114-4C537B27C148}" name="項目番号" headerRowDxfId="20" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E9E099E9-0D35-44D7-93E4-4703AB560B91}" name="大項目" headerRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{CDB1D4AE-F878-4BA9-BAF7-F36FAF4DCB03}" name="列3" headerRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{1720F283-6753-4675-9ADC-F4290B87F214}" name="確認内容" headerRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E75DA52F-2BC2-40A7-8495-D18E800E9B7B}" name="操作手順" headerRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{011AD4A8-E98D-48F4-9358-1B2E6228556E}" name="期待値" headerRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C44CD532-16A7-465A-8183-756809020628}" name="実施日" headerRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{60A4753E-7860-423B-8750-F53D11E1B14A}" name="実施結果" headerRowDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{8E72007A-F6B7-43BC-8CAF-E80D05998396}" name="備考" headerRowDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8CCBE96E-14F3-44F6-B64E-31D8F99B235B}" name="テーブル357" displayName="テーブル357" ref="A9:I17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{362C674A-7967-46F7-BB6F-C9217AAF8806}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
@@ -1984,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2003,45 +1747,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2082,16 +1826,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +1848,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2111,19 +1859,25 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2132,7 +1886,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2143,19 +1897,25 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2164,7 +1924,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2180,16 +1940,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2198,7 +1962,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2214,16 +1978,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2232,7 +2000,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2251,13 +2019,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2266,7 +2038,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2282,16 +2054,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2314,16 +2090,20 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2346,16 +2126,20 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2364,7 +2148,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2380,16 +2164,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2408,20 +2196,24 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2430,7 +2222,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2442,20 +2234,24 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2464,7 +2260,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2472,20 +2268,28 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2494,7 +2298,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2502,20 +2306,28 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2524,7 +2336,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2532,20 +2344,28 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2554,7 +2374,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2563,23 +2383,27 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2588,7 +2412,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2609,11 +2433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2631,230 +2455,227 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>42</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
@@ -2862,295 +2683,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
